--- a/docs/Gantt Chart - v1.xlsx
+++ b/docs/Gantt Chart - v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tris/Desktop/QP4ISAR/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83E6BDD-182E-C943-A049-F81768F24A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122EAB9-5803-1D40-97ED-436127446D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{AD5DB4A1-FA05-48CC-AA88-182ACDE6B8CB}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,10 +963,10 @@
         <v>40</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="6"/>
@@ -979,10 +979,10 @@
         <v>33</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="6"/>
